--- a/doc/05_tests/usability_auswertung.xlsx
+++ b/doc/05_tests/usability_auswertung.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26101"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giovin/git_workspace/shared/ep2016/doc/07_tests/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dmeister\OneDrive\HSR\Module\Studienarbeit\SA_Network-Unit-Tests\doc\05_tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Auswertung" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -132,6 +132,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -139,7 +142,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="de-CH"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -151,7 +154,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -180,7 +182,7 @@
               <a:cs typeface="Tahoma" charset="0"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -239,13 +241,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -261,11 +263,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2144716000"/>
-        <c:axId val="-2144756000"/>
+        <c:axId val="72326592"/>
+        <c:axId val="72354504"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2144716000"/>
+        <c:axId val="72326592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -308,10 +310,10 @@
                 <a:cs typeface="Tahoma" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2144756000"/>
+        <c:crossAx val="72354504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -319,11 +321,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2144756000"/>
+        <c:axId val="72354504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="16.0"/>
-          <c:min val="0.0"/>
+          <c:max val="16"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -372,14 +374,14 @@
                 <a:cs typeface="Tahoma" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2144716000"/>
+        <c:crossAx val="72326592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="1.0"/>
-        <c:minorUnit val="1.0"/>
+        <c:majorUnit val="1"/>
+        <c:minorUnit val="1"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -417,7 +419,7 @@
           <a:cs typeface="Tahoma" charset="0"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -431,7 +433,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="de-CH"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -443,7 +445,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -469,7 +470,7 @@
               <a:cs typeface="Tahoma" charset="0"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -528,13 +529,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -550,11 +551,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="2121949552"/>
-        <c:axId val="2121966208"/>
+        <c:axId val="72431528"/>
+        <c:axId val="72453528"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2121949552"/>
+        <c:axId val="72431528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -594,10 +595,10 @@
                 <a:cs typeface="Tahoma" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2121966208"/>
+        <c:crossAx val="72453528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -605,11 +606,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2121966208"/>
+        <c:axId val="72453528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="12.0"/>
-          <c:min val="0.0"/>
+          <c:max val="12"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -655,14 +656,14 @@
                 <a:cs typeface="Tahoma" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2121949552"/>
+        <c:crossAx val="72431528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="1.0"/>
-        <c:minorUnit val="1.0"/>
+        <c:majorUnit val="1"/>
+        <c:minorUnit val="1"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -702,7 +703,7 @@
           <a:cs typeface="Tahoma" charset="0"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -716,7 +717,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="de-CH"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -732,8 +733,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.37913188976378"/>
-          <c:y val="0.037037037037037"/>
+          <c:x val="0.37913188976377998"/>
+          <c:y val="3.7037037037037E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -761,7 +762,7 @@
               <a:cs typeface="Tahoma" charset="0"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -820,13 +821,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>48.0</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>52.0</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -842,11 +843,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2144653952"/>
-        <c:axId val="-2144650560"/>
+        <c:axId val="72531456"/>
+        <c:axId val="72531840"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2144653952"/>
+        <c:axId val="72531456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -886,10 +887,10 @@
                 <a:cs typeface="Tahoma" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2144650560"/>
+        <c:crossAx val="72531840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -897,11 +898,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2144650560"/>
+        <c:axId val="72531840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="52.0"/>
-          <c:min val="0.0"/>
+          <c:max val="52"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -947,14 +948,14 @@
                 <a:cs typeface="Tahoma" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2144653952"/>
+        <c:crossAx val="72531456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="4.0"/>
-        <c:minorUnit val="1.0"/>
+        <c:majorUnit val="4"/>
+        <c:minorUnit val="1"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -994,7 +995,7 @@
           <a:cs typeface="Tahoma" charset="0"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1008,7 +1009,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="de-CH"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1046,7 +1047,7 @@
               <a:cs typeface="Tahoma" charset="0"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1105,13 +1106,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1127,11 +1128,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2144622432"/>
-        <c:axId val="-2144619040"/>
+        <c:axId val="72475872"/>
+        <c:axId val="72489680"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2144622432"/>
+        <c:axId val="72475872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1171,10 +1172,10 @@
                 <a:cs typeface="Tahoma" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2144619040"/>
+        <c:crossAx val="72489680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1182,10 +1183,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2144619040"/>
+        <c:axId val="72489680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="4.0"/>
+          <c:max val="4"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1231,14 +1232,14 @@
                 <a:cs typeface="Tahoma" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2144622432"/>
+        <c:crossAx val="72475872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="1.0"/>
-        <c:minorUnit val="1.0"/>
+        <c:majorUnit val="1"/>
+        <c:minorUnit val="1"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1278,7 +1279,7 @@
           <a:cs typeface="Tahoma" charset="0"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1292,7 +1293,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="de-CH"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1330,7 +1331,7 @@
               <a:cs typeface="Tahoma" charset="0"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1389,13 +1390,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1411,11 +1412,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2143755600"/>
-        <c:axId val="-2143752208"/>
+        <c:axId val="72500536"/>
+        <c:axId val="72500920"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2143755600"/>
+        <c:axId val="72500536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1455,10 +1456,10 @@
                 <a:cs typeface="Tahoma" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2143752208"/>
+        <c:crossAx val="72500920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1466,11 +1467,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2143752208"/>
+        <c:axId val="72500920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="16.0"/>
-          <c:min val="0.0"/>
+          <c:max val="16"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1516,14 +1517,14 @@
                 <a:cs typeface="Tahoma" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2143755600"/>
+        <c:crossAx val="72500536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="1.0"/>
-        <c:minorUnit val="1.0"/>
+        <c:majorUnit val="1"/>
+        <c:minorUnit val="1"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1563,7 +1564,7 @@
           <a:cs typeface="Tahoma" charset="0"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1577,7 +1578,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="de-CH"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1615,7 +1616,7 @@
               <a:cs typeface="Tahoma" charset="0"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1674,13 +1675,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1696,11 +1697,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2143716128"/>
-        <c:axId val="-2143712736"/>
+        <c:axId val="151341352"/>
+        <c:axId val="149561472"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2143716128"/>
+        <c:axId val="151341352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1740,10 +1741,10 @@
                 <a:cs typeface="Tahoma" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2143712736"/>
+        <c:crossAx val="149561472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1751,11 +1752,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2143712736"/>
+        <c:axId val="149561472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="12.0"/>
-          <c:min val="0.0"/>
+          <c:max val="12"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1801,14 +1802,14 @@
                 <a:cs typeface="Tahoma" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2143716128"/>
+        <c:crossAx val="151341352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="1.0"/>
-        <c:minorUnit val="1.0"/>
+        <c:majorUnit val="1"/>
+        <c:minorUnit val="1"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1848,7 +1849,7 @@
           <a:cs typeface="Tahoma" charset="0"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1862,7 +1863,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="de-CH"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1925,7 +1926,7 @@
               <a:cs typeface="Tahoma" charset="0"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1984,13 +1985,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>101.0</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>109.0</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>112.0</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2006,11 +2007,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2143683696"/>
-        <c:axId val="-2143680304"/>
+        <c:axId val="149562256"/>
+        <c:axId val="149562648"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2143683696"/>
+        <c:axId val="149562256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2050,10 +2051,10 @@
                 <a:cs typeface="Tahoma" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2143680304"/>
+        <c:crossAx val="149562648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2061,11 +2062,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2143680304"/>
+        <c:axId val="149562648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="120.0"/>
-          <c:min val="0.0"/>
+          <c:max val="120"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2111,13 +2112,13 @@
                 <a:cs typeface="Tahoma" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2143683696"/>
+        <c:crossAx val="149562256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="8.0"/>
+        <c:majorUnit val="8"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2157,7 +2158,7 @@
           <a:cs typeface="Tahoma" charset="0"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2171,7 +2172,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="de-CH"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2234,7 +2235,7 @@
               <a:cs typeface="Tahoma" charset="0"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2305,25 +2306,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>48.0</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>33.0</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>150.0</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>46.0</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>36.0</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>322.0</c:v>
+                  <c:v>322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2389,25 +2390,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>48.0</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>36.0</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>156.0</c:v>
+                  <c:v>156</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>48.0</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>36.0</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>336.0</c:v>
+                  <c:v>336</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2423,11 +2424,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2069502240"/>
-        <c:axId val="-2088964592"/>
+        <c:axId val="149563432"/>
+        <c:axId val="149563824"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2069502240"/>
+        <c:axId val="149563432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2467,10 +2468,10 @@
                 <a:cs typeface="Tahoma" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2088964592"/>
+        <c:crossAx val="149563824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2478,10 +2479,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2088964592"/>
+        <c:axId val="149563824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="350.0"/>
+          <c:max val="350"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2527,14 +2528,14 @@
                 <a:cs typeface="Tahoma" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2069502240"/>
+        <c:crossAx val="149563432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="50.0"/>
-        <c:minorUnit val="5.0"/>
+        <c:majorUnit val="50"/>
+        <c:minorUnit val="5"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2572,7 +2573,7 @@
               <a:cs typeface="Tahoma" charset="0"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2606,7 +2607,7 @@
           <a:cs typeface="Tahoma" charset="0"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7475,30 +7476,30 @@
       <selection activeCell="L70" sqref="L70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="1"/>
+    <col min="4" max="4" width="15.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
@@ -7521,7 +7522,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -7548,7 +7549,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -7575,7 +7576,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -7602,7 +7603,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -7635,7 +7636,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
